--- a/output/kep.xlsx
+++ b/output/kep.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="178">
   <si>
     <t>CONSTR_bln_rub_fix</t>
   </si>
@@ -319,109 +319,61 @@
     <t>Ед.изм.</t>
   </si>
   <si>
-    <t>"1.8. Объем работ по виду деятельности ""Строительство""</t>
+    <t>_qtr</t>
   </si>
   <si>
-    <t>В бюджеты всех уровней</t>
+    <t>_year</t>
   </si>
   <si>
-    <t>Поставщикам, млрд.рублей</t>
+    <t>_month</t>
   </si>
   <si>
-    <t>в том числе просроченная, млрд.рублей / of which overdue payments, bln rubles</t>
+    <t>Общая численность безработных</t>
   </si>
   <si>
-    <t>Кредиторская задолженность</t>
+    <t>Индекс промышленного производства</t>
   </si>
   <si>
-    <t>Дебиторская задолженность</t>
+    <t>/ import of goods – total</t>
   </si>
   <si>
-    <t>алкогольные напитки</t>
+    <t>/ of which: export of goods – total</t>
   </si>
   <si>
-    <t>продукты питания</t>
+    <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
   </si>
   <si>
-    <t>непродовольственные товары</t>
+    <t>1.12. Дефицит ( – ), профицит консолидированного бюджета</t>
   </si>
   <si>
-    <t>услуги</t>
+    <t>Производство и распределение электроэнергии, газа и воды</t>
   </si>
   <si>
-    <t>Индекс потребительских цен</t>
+    <t>Консолидированные бюджеты субъектов Российской Федерации</t>
+  </si>
+  <si>
+    <t>Среднемесячная номинальная начисленная заработная плата</t>
+  </si>
+  <si>
+    <t>Нефть добытая, млн.тонн</t>
+  </si>
+  <si>
+    <t>Древесина необработанная</t>
+  </si>
+  <si>
+    <t>&lt;...&gt;</t>
   </si>
   <si>
     <t>1.9. Ввод в действие жилых домов организациями</t>
   </si>
   <si>
-    <t>Объем ВВП</t>
+    <t>Коммерческий грузооборот транспорта</t>
   </si>
   <si>
-    <t>1.12. Дефицит ( – ), профицит консолидированного бюджета</t>
-  </si>
-  <si>
-    <t>Консолидированный бюджет</t>
-  </si>
-  <si>
-    <t>Федеральный бюджет</t>
-  </si>
-  <si>
-    <t>Консолидированные бюджеты субъектов Российской Федерации</t>
-  </si>
-  <si>
-    <t>Индекс промышленного производства</t>
-  </si>
-  <si>
-    <t>Инвестиции в основной капитал</t>
-  </si>
-  <si>
-    <t>Строительство</t>
-  </si>
-  <si>
-    <t>Обрабатывающие производства</t>
-  </si>
-  <si>
-    <t>Добыча полезных ископаемых</t>
-  </si>
-  <si>
-    <t>Производство и распределение электроэнергии, газа и воды</t>
-  </si>
-  <si>
-    <t>Транспорт и связь</t>
-  </si>
-  <si>
-    <t>Яйца куриные, рублей за тыс.штук</t>
-  </si>
-  <si>
-    <t>индекс цен производителей на строительную продукцию</t>
-  </si>
-  <si>
-    <t>Сводный индекс цен на продукцию (затраты, услуги) инвестиционного назначения</t>
-  </si>
-  <si>
-    <t>Автобусы, штук</t>
-  </si>
-  <si>
-    <t>Автомобили легковые, тыс.штук</t>
-  </si>
-  <si>
-    <t>Автомобили грузовые (включая шасси) (кроме автосамосвалов)</t>
+    <t>Электроэнергия, млрд. кВт·ч</t>
   </si>
   <si>
     <t>Грузовые автомобили, тыс.штук</t>
-  </si>
-  <si>
-    <t>Велосипеды (без детских), тыс.штук</t>
-  </si>
-  <si>
-    <t>Уголь, млн.тонн</t>
-  </si>
-  <si>
-    <t>Яйца, млн.штук</t>
-  </si>
-  <si>
-    <t>Электроэнергия, млрд. кВт·ч</t>
   </si>
   <si>
     <t>Обувь, млн.пар</t>
@@ -430,118 +382,175 @@
     <t>Бензин автомобильный, млн.тонн</t>
   </si>
   <si>
-    <t>Газ естественный, млрд.куб.м</t>
+    <t>Оборот розничной торговли</t>
   </si>
   <si>
-    <t>Нефть добытая, млн.тонн</t>
+    <t>Консолидированный бюджет</t>
+  </si>
+  <si>
+    <t>Freight loading on railway transport</t>
+  </si>
+  <si>
+    <t>Строительство</t>
+  </si>
+  <si>
+    <t>Древесина деловая</t>
+  </si>
+  <si>
+    <t>непродовольственные товары</t>
+  </si>
+  <si>
+    <t>Уголь, млн.тонн</t>
+  </si>
+  <si>
+    <t>Автомобили легковые, тыс.штук</t>
+  </si>
+  <si>
+    <t>Средний размер назначенных пенсий</t>
+  </si>
+  <si>
+    <t>Инвестиции в основной капитал</t>
+  </si>
+  <si>
+    <t>в том числе просроченная, млрд.рублей / of which overdue payments, bln rubles</t>
+  </si>
+  <si>
+    <t>Федеральный бюджет</t>
+  </si>
+  <si>
+    <t>Яйца, млн.штук</t>
+  </si>
+  <si>
+    <t>Объем ВВП</t>
+  </si>
+  <si>
+    <t>Численность занятого в экономике населения</t>
+  </si>
+  <si>
+    <t>Транспорт и связь</t>
+  </si>
+  <si>
+    <t>"1.8. Объем работ по виду деятельности ""Строительство""</t>
+  </si>
+  <si>
+    <t>Объем платных услуг населению</t>
+  </si>
+  <si>
+    <t>Индекс потребительских цен</t>
+  </si>
+  <si>
+    <t>Автомобили грузовые (включая шасси) (кроме автосамосвалов)</t>
+  </si>
+  <si>
+    <t>Просроченная задолженность по заработной плате на начало месяца</t>
+  </si>
+  <si>
+    <t>продукты питания</t>
+  </si>
+  <si>
+    <t>индекс цен производителей на строительную продукцию</t>
+  </si>
+  <si>
+    <t>Дебиторская задолженность</t>
+  </si>
+  <si>
+    <t>Уровень безработицы</t>
+  </si>
+  <si>
+    <t>Вагоны пассажирские магистральные, штук</t>
+  </si>
+  <si>
+    <t>Газ естественный, млрд.куб.м</t>
   </si>
   <si>
     <t>Вагоны грузовые магистральные, штук</t>
   </si>
   <si>
-    <t>Вагоны пассажирские магистральные, штук</t>
-  </si>
-  <si>
     <t>Сталь, тыс.тонн</t>
   </si>
   <si>
-    <t>Древесина деловая</t>
+    <t>Сводный индекс цен на продукцию (затраты, услуги) инвестиционного назначения</t>
   </si>
   <si>
-    <t>Древесина необработанная</t>
+    <t>Яйца куриные, рублей за тыс.штук</t>
   </si>
   <si>
-    <t>Оборот розничной торговли</t>
+    <t>алкогольные напитки</t>
+  </si>
+  <si>
+    <t>Обрабатывающие производства</t>
+  </si>
+  <si>
+    <t>Поставщикам, млрд.рублей</t>
+  </si>
+  <si>
+    <t>услуги</t>
+  </si>
+  <si>
+    <t>Официальный курс доллара США</t>
+  </si>
+  <si>
+    <t>Кредиторская задолженность</t>
+  </si>
+  <si>
+    <t>Добыча полезных ископаемых</t>
+  </si>
+  <si>
+    <t>Велосипеды (без детских), тыс.штук</t>
+  </si>
+  <si>
+    <t>В бюджеты всех уровней</t>
   </si>
   <si>
     <t>Официальный курс евро по отношению к рублю</t>
   </si>
   <si>
-    <t>Официальный курс доллара США</t>
+    <t>Автобусы, штук</t>
   </si>
   <si>
-    <t>Численность занятого в экономике населения</t>
+    <t>млрд.</t>
   </si>
   <si>
-    <t>Средний размер назначенных пенсий</t>
+    <t>в % к аналог. периоду предыдущего года</t>
   </si>
   <si>
-    <t>Общая численность безработных</t>
+    <t>млрд. т-км</t>
   </si>
   <si>
-    <t>Уровень безработицы</t>
+    <t>в % к предыдущему периоду</t>
   </si>
   <si>
-    <t>Просроченная задолженность по заработной плате на начало месяца</t>
+    <t>млрд. руб.</t>
   </si>
   <si>
-    <t>Среднемесячная номинальная начисленная заработная плата</t>
+    <t>рублей</t>
   </si>
   <si>
-    <t>/ of which: export of goods – total</t>
+    <t>млн. т</t>
   </si>
   <si>
-    <t>/ import of goods – total</t>
+    <t>млрд. кВт·ч</t>
   </si>
   <si>
-    <t>Коммерческий грузооборот транспорта</t>
+    <t>тыс.</t>
   </si>
   <si>
-    <t>Freight loading on railway transport</t>
-  </si>
-  <si>
-    <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
-  </si>
-  <si>
-    <t>Объем платных услуг населению</t>
+    <t>млн. человек</t>
   </si>
   <si>
     <t>млрд. руб. (в фикс. ценах)</t>
   </si>
   <si>
-    <t>в % к предыдущему периоду</t>
+    <t>с начала года</t>
   </si>
   <si>
-    <t>в % к аналог. периоду предыдущего года</t>
-  </si>
-  <si>
-    <t>млрд. руб.</t>
-  </si>
-  <si>
-    <t>&lt;...&gt;</t>
-  </si>
-  <si>
-    <t>с начала года</t>
+    <t>%</t>
   </si>
   <si>
     <t>штук</t>
   </si>
   <si>
-    <t>тыс.</t>
-  </si>
-  <si>
-    <t>млн. т</t>
-  </si>
-  <si>
-    <t>млн. человек</t>
-  </si>
-  <si>
-    <t>млрд. кВт·ч</t>
-  </si>
-  <si>
     <t>на конец периода</t>
-  </si>
-  <si>
-    <t>рублей</t>
-  </si>
-  <si>
-    <t>млрд.</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>млрд. т-км</t>
   </si>
 </sst>
 </file>
@@ -73197,7 +73206,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -73219,13 +73228,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -73233,13 +73242,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -73247,13 +73256,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -73261,13 +73270,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -73275,13 +73284,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -73289,13 +73298,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -73303,13 +73312,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -73317,13 +73326,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -73331,13 +73340,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -73345,13 +73354,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -73359,13 +73368,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -73373,13 +73382,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -73387,13 +73396,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -73401,13 +73410,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -73415,13 +73424,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -73429,13 +73438,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -73443,13 +73452,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -73457,13 +73466,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -73471,13 +73480,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -73485,13 +73494,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -73499,13 +73508,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -73513,13 +73522,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -73527,13 +73536,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -73541,13 +73550,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -73555,13 +73564,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -73569,13 +73578,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -73583,13 +73592,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -73597,13 +73606,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -73611,13 +73620,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -73625,13 +73634,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -73639,13 +73648,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -73653,13 +73662,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -73667,13 +73676,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -73681,13 +73690,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -73695,13 +73704,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -73709,13 +73718,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -73723,13 +73732,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -73737,13 +73746,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -73751,13 +73760,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -73765,13 +73774,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -73779,13 +73788,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -73793,13 +73802,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -73807,13 +73816,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -73821,13 +73830,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -73835,13 +73844,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -73849,13 +73858,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -73863,10 +73872,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
         <v>166</v>
@@ -73877,10 +73886,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
         <v>167</v>
@@ -73891,13 +73900,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -73911,7 +73920,7 @@
         <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -73919,13 +73928,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -73933,13 +73942,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -73947,13 +73956,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -73961,13 +73970,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -73975,13 +73984,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -73989,13 +73998,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -74003,13 +74012,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -74017,13 +74026,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -74031,13 +74040,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -74045,13 +74054,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -74059,13 +74068,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -74073,13 +74082,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -74087,13 +74096,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -74101,13 +74110,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -74115,13 +74124,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -74129,13 +74138,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
         <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -74143,13 +74152,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -74157,13 +74166,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
         <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -74171,13 +74180,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
         <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -74185,13 +74194,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -74199,13 +74208,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -74213,13 +74222,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -74227,13 +74236,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -74241,13 +74250,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -74255,13 +74264,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -74272,10 +74281,10 @@
         <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -74283,13 +74292,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -74297,13 +74306,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -74311,13 +74320,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -74325,13 +74334,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>154</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -74339,13 +74348,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -74353,13 +74362,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -74367,13 +74376,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -74381,13 +74390,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -74395,13 +74404,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -74409,13 +74418,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -74423,13 +74432,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -74437,13 +74446,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -74451,13 +74460,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -74465,13 +74474,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -74479,13 +74488,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -74493,13 +74502,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -74507,13 +74516,55 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>70</v>
       </c>
-      <c r="C94" t="s">
-        <v>158</v>
-      </c>
-      <c r="D94" t="s">
-        <v>161</v>
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/output/kep.xlsx
+++ b/output/kep.xlsx
@@ -319,31 +319,148 @@
     <t>Ед.изм.</t>
   </si>
   <si>
+    <t>_month</t>
+  </si>
+  <si>
     <t>_qtr</t>
   </si>
   <si>
     <t>_year</t>
   </si>
   <si>
-    <t>_month</t>
+    <t>Объем платных услуг населению</t>
+  </si>
+  <si>
+    <t>Транспорт и связь</t>
+  </si>
+  <si>
+    <t>Инвестиции в основной капитал</t>
+  </si>
+  <si>
+    <t>Коммерческий грузооборот транспорта</t>
+  </si>
+  <si>
+    <t>Газ естественный, млрд.куб.м</t>
+  </si>
+  <si>
+    <t>в том числе просроченная, млрд.рублей / of which overdue payments, bln rubles</t>
+  </si>
+  <si>
+    <t>1.9. Ввод в действие жилых домов организациями</t>
+  </si>
+  <si>
+    <t>Древесина деловая</t>
+  </si>
+  <si>
+    <t>Среднемесячная номинальная начисленная заработная плата</t>
+  </si>
+  <si>
+    <t>Велосипеды (без детских), тыс.штук</t>
+  </si>
+  <si>
+    <t>/ import of goods – total</t>
+  </si>
+  <si>
+    <t>Официальный курс доллара США</t>
+  </si>
+  <si>
+    <t>Вагоны пассажирские магистральные, штук</t>
+  </si>
+  <si>
+    <t>Поставщикам, млрд.рублей</t>
+  </si>
+  <si>
+    <t>Просроченная задолженность по заработной плате на начало месяца</t>
+  </si>
+  <si>
+    <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
+  </si>
+  <si>
+    <t>Электроэнергия, млрд. кВт·ч</t>
+  </si>
+  <si>
+    <t>&lt;...&gt;</t>
+  </si>
+  <si>
+    <t>Средний размер назначенных пенсий</t>
+  </si>
+  <si>
+    <t>Дебиторская задолженность</t>
+  </si>
+  <si>
+    <t>Уголь, млн.тонн</t>
+  </si>
+  <si>
+    <t>Консолидированный бюджет</t>
+  </si>
+  <si>
+    <t>Федеральный бюджет</t>
+  </si>
+  <si>
+    <t>"1.8. Объем работ по виду деятельности ""Строительство""</t>
+  </si>
+  <si>
+    <t>1.12. Дефицит ( – ), профицит консолидированного бюджета</t>
+  </si>
+  <si>
+    <t>Бензин автомобильный, млн.тонн</t>
+  </si>
+  <si>
+    <t>непродовольственные товары</t>
+  </si>
+  <si>
+    <t>индекс цен производителей на строительную продукцию</t>
+  </si>
+  <si>
+    <t>Яйца, млн.штук</t>
+  </si>
+  <si>
+    <t>Сталь, тыс.тонн</t>
+  </si>
+  <si>
+    <t>/ of which: export of goods – total</t>
+  </si>
+  <si>
+    <t>Обрабатывающие производства</t>
+  </si>
+  <si>
+    <t>Официальный курс евро по отношению к рублю</t>
+  </si>
+  <si>
+    <t>Древесина необработанная</t>
+  </si>
+  <si>
+    <t>Индекс промышленного производства</t>
+  </si>
+  <si>
+    <t>Добыча полезных ископаемых</t>
   </si>
   <si>
     <t>Общая численность безработных</t>
   </si>
   <si>
-    <t>Индекс промышленного производства</t>
+    <t>Автомобили легковые, тыс.штук</t>
   </si>
   <si>
-    <t>/ import of goods – total</t>
+    <t>Автобусы, штук</t>
   </si>
   <si>
-    <t>/ of which: export of goods – total</t>
+    <t>В бюджеты всех уровней</t>
   </si>
   <si>
-    <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
+    <t>Оборот розничной торговли</t>
   </si>
   <si>
-    <t>1.12. Дефицит ( – ), профицит консолидированного бюджета</t>
+    <t>Уровень безработицы</t>
+  </si>
+  <si>
+    <t>Индекс потребительских цен</t>
+  </si>
+  <si>
+    <t>Нефть добытая, млн.тонн</t>
+  </si>
+  <si>
+    <t>Объем ВВП</t>
   </si>
   <si>
     <t>Производство и распределение электроэнергии, газа и воды</t>
@@ -352,169 +469,43 @@
     <t>Консолидированные бюджеты субъектов Российской Федерации</t>
   </si>
   <si>
-    <t>Среднемесячная номинальная начисленная заработная плата</t>
+    <t>Обувь, млн.пар</t>
   </si>
   <si>
-    <t>Нефть добытая, млн.тонн</t>
+    <t>Freight loading on railway transport</t>
   </si>
   <si>
-    <t>Древесина необработанная</t>
+    <t>Автомобили грузовые (включая шасси) (кроме автосамосвалов)</t>
   </si>
   <si>
-    <t>&lt;...&gt;</t>
+    <t>Численность занятого в экономике населения</t>
   </si>
   <si>
-    <t>1.9. Ввод в действие жилых домов организациями</t>
+    <t>Яйца куриные, рублей за тыс.штук</t>
   </si>
   <si>
-    <t>Коммерческий грузооборот транспорта</t>
+    <t>Кредиторская задолженность</t>
   </si>
   <si>
-    <t>Электроэнергия, млрд. кВт·ч</t>
+    <t>алкогольные напитки</t>
+  </si>
+  <si>
+    <t>Строительство</t>
   </si>
   <si>
     <t>Грузовые автомобили, тыс.штук</t>
   </si>
   <si>
-    <t>Обувь, млн.пар</t>
-  </si>
-  <si>
-    <t>Бензин автомобильный, млн.тонн</t>
-  </si>
-  <si>
-    <t>Оборот розничной торговли</t>
-  </si>
-  <si>
-    <t>Консолидированный бюджет</t>
-  </si>
-  <si>
-    <t>Freight loading on railway transport</t>
-  </si>
-  <si>
-    <t>Строительство</t>
-  </si>
-  <si>
-    <t>Древесина деловая</t>
-  </si>
-  <si>
-    <t>непродовольственные товары</t>
-  </si>
-  <si>
-    <t>Уголь, млн.тонн</t>
-  </si>
-  <si>
-    <t>Автомобили легковые, тыс.штук</t>
-  </si>
-  <si>
-    <t>Средний размер назначенных пенсий</t>
-  </si>
-  <si>
-    <t>Инвестиции в основной капитал</t>
-  </si>
-  <si>
-    <t>в том числе просроченная, млрд.рублей / of which overdue payments, bln rubles</t>
-  </si>
-  <si>
-    <t>Федеральный бюджет</t>
-  </si>
-  <si>
-    <t>Яйца, млн.штук</t>
-  </si>
-  <si>
-    <t>Объем ВВП</t>
-  </si>
-  <si>
-    <t>Численность занятого в экономике населения</t>
-  </si>
-  <si>
-    <t>Транспорт и связь</t>
-  </si>
-  <si>
-    <t>"1.8. Объем работ по виду деятельности ""Строительство""</t>
-  </si>
-  <si>
-    <t>Объем платных услуг населению</t>
-  </si>
-  <si>
-    <t>Индекс потребительских цен</t>
-  </si>
-  <si>
-    <t>Автомобили грузовые (включая шасси) (кроме автосамосвалов)</t>
-  </si>
-  <si>
-    <t>Просроченная задолженность по заработной плате на начало месяца</t>
-  </si>
-  <si>
-    <t>продукты питания</t>
-  </si>
-  <si>
-    <t>индекс цен производителей на строительную продукцию</t>
-  </si>
-  <si>
-    <t>Дебиторская задолженность</t>
-  </si>
-  <si>
-    <t>Уровень безработицы</t>
-  </si>
-  <si>
-    <t>Вагоны пассажирские магистральные, штук</t>
-  </si>
-  <si>
-    <t>Газ естественный, млрд.куб.м</t>
+    <t>Сводный индекс цен на продукцию (затраты, услуги) инвестиционного назначения</t>
   </si>
   <si>
     <t>Вагоны грузовые магистральные, штук</t>
   </si>
   <si>
-    <t>Сталь, тыс.тонн</t>
-  </si>
-  <si>
-    <t>Сводный индекс цен на продукцию (затраты, услуги) инвестиционного назначения</t>
-  </si>
-  <si>
-    <t>Яйца куриные, рублей за тыс.штук</t>
-  </si>
-  <si>
-    <t>алкогольные напитки</t>
-  </si>
-  <si>
-    <t>Обрабатывающие производства</t>
-  </si>
-  <si>
-    <t>Поставщикам, млрд.рублей</t>
-  </si>
-  <si>
     <t>услуги</t>
   </si>
   <si>
-    <t>Официальный курс доллара США</t>
-  </si>
-  <si>
-    <t>Кредиторская задолженность</t>
-  </si>
-  <si>
-    <t>Добыча полезных ископаемых</t>
-  </si>
-  <si>
-    <t>Велосипеды (без детских), тыс.штук</t>
-  </si>
-  <si>
-    <t>В бюджеты всех уровней</t>
-  </si>
-  <si>
-    <t>Официальный курс евро по отношению к рублю</t>
-  </si>
-  <si>
-    <t>Автобусы, штук</t>
-  </si>
-  <si>
-    <t>млрд.</t>
-  </si>
-  <si>
-    <t>в % к аналог. периоду предыдущего года</t>
-  </si>
-  <si>
-    <t>млрд. т-км</t>
+    <t>продукты питания</t>
   </si>
   <si>
     <t>в % к предыдущему периоду</t>
@@ -523,34 +514,43 @@
     <t>млрд. руб.</t>
   </si>
   <si>
+    <t>в % к аналог. периоду предыдущего года</t>
+  </si>
+  <si>
+    <t>тыс.</t>
+  </si>
+  <si>
+    <t>на конец периода</t>
+  </si>
+  <si>
+    <t>штук</t>
+  </si>
+  <si>
+    <t>млрд. кВт·ч</t>
+  </si>
+  <si>
     <t>рублей</t>
   </si>
   <si>
     <t>млн. т</t>
   </si>
   <si>
-    <t>млрд. кВт·ч</t>
-  </si>
-  <si>
-    <t>тыс.</t>
-  </si>
-  <si>
     <t>млн. человек</t>
   </si>
   <si>
-    <t>млрд. руб. (в фикс. ценах)</t>
+    <t>млрд. т-км</t>
+  </si>
+  <si>
+    <t>млрд.</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>с начала года</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>штук</t>
-  </si>
-  <si>
-    <t>на конец периода</t>
+    <t>млрд. руб. (в фикс. ценах)</t>
   </si>
 </sst>
 </file>
@@ -73228,7 +73228,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -73242,7 +73242,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>104</v>
@@ -73256,7 +73256,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -73270,13 +73270,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -73284,13 +73284,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -73298,13 +73298,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -73312,13 +73312,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -73326,13 +73326,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -73340,13 +73340,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -73354,13 +73354,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -73368,13 +73368,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -73382,13 +73382,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -73396,13 +73396,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -73410,13 +73410,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -73424,13 +73424,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -73438,13 +73438,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -73452,13 +73452,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -73466,13 +73466,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -73480,13 +73480,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -73494,13 +73494,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -73508,13 +73508,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -73522,13 +73522,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -73536,13 +73536,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -73550,13 +73550,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -73564,13 +73564,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -73578,13 +73578,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -73592,13 +73592,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -73606,13 +73606,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -73620,13 +73620,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -73634,13 +73634,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -73648,13 +73648,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -73662,13 +73662,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -73676,13 +73676,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -73690,13 +73690,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -73704,13 +73704,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -73718,10 +73718,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
         <v>167</v>
@@ -73732,13 +73732,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -73746,13 +73746,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -73760,13 +73760,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -73774,13 +73774,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -73788,13 +73788,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -73802,13 +73802,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -73816,13 +73816,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -73830,13 +73830,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -73844,13 +73844,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -73858,13 +73858,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -73872,13 +73872,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -73886,13 +73886,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -73900,13 +73900,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -73914,10 +73914,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
         <v>164</v>
@@ -73928,13 +73928,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -73942,13 +73942,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -73956,13 +73956,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -73970,13 +73970,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -73984,13 +73984,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -73998,13 +73998,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -74012,13 +74012,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -74026,13 +74026,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -74040,13 +74040,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -74054,13 +74054,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -74068,10 +74068,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
         <v>164</v>
@@ -74082,13 +74082,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -74096,13 +74096,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -74110,13 +74110,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -74124,13 +74124,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -74138,13 +74138,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -74152,13 +74152,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -74166,13 +74166,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -74180,13 +74180,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -74194,13 +74194,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -74208,13 +74208,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -74222,13 +74222,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -74236,13 +74236,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -74250,13 +74250,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -74264,13 +74264,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -74278,13 +74278,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -74292,13 +74292,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -74306,13 +74306,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -74320,13 +74320,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -74334,13 +74334,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -74348,13 +74348,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -74362,13 +74362,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -74376,13 +74376,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>157</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -74390,10 +74390,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D85" t="s">
         <v>166</v>
@@ -74404,13 +74404,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -74418,13 +74418,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -74432,13 +74432,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -74446,13 +74446,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -74460,13 +74460,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -74474,13 +74474,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
         <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -74488,13 +74488,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -74502,13 +74502,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -74516,13 +74516,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -74530,13 +74530,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -74544,13 +74544,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -74558,13 +74558,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/output/kep.xlsx
+++ b/output/kep.xlsx
@@ -328,67 +328,46 @@
     <t>_year</t>
   </si>
   <si>
-    <t>Объем платных услуг населению</t>
+    <t>Объем работ по виду деятельности ""Строительство""</t>
   </si>
   <si>
-    <t>Транспорт и связь</t>
+    <t>В бюджеты всех уровней</t>
   </si>
   <si>
-    <t>Инвестиции в основной капитал</t>
-  </si>
-  <si>
-    <t>Коммерческий грузооборот транспорта</t>
-  </si>
-  <si>
-    <t>Газ естественный, млрд.куб.м</t>
+    <t>Поставщикам, млрд.рублей</t>
   </si>
   <si>
     <t>в том числе просроченная, млрд.рублей / of which overdue payments, bln rubles</t>
   </si>
   <si>
-    <t>1.9. Ввод в действие жилых домов организациями</t>
-  </si>
-  <si>
-    <t>Древесина деловая</t>
-  </si>
-  <si>
-    <t>Среднемесячная номинальная начисленная заработная плата</t>
-  </si>
-  <si>
-    <t>Велосипеды (без детских), тыс.штук</t>
-  </si>
-  <si>
-    <t>/ import of goods – total</t>
-  </si>
-  <si>
-    <t>Официальный курс доллара США</t>
-  </si>
-  <si>
-    <t>Вагоны пассажирские магистральные, штук</t>
-  </si>
-  <si>
-    <t>Поставщикам, млрд.рублей</t>
-  </si>
-  <si>
-    <t>Просроченная задолженность по заработной плате на начало месяца</t>
-  </si>
-  <si>
-    <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
-  </si>
-  <si>
-    <t>Электроэнергия, млрд. кВт·ч</t>
-  </si>
-  <si>
-    <t>&lt;...&gt;</t>
-  </si>
-  <si>
-    <t>Средний размер назначенных пенсий</t>
+    <t>Кредиторская задолженность</t>
   </si>
   <si>
     <t>Дебиторская задолженность</t>
   </si>
   <si>
-    <t>Уголь, млн.тонн</t>
+    <t>алкогольные напитки</t>
+  </si>
+  <si>
+    <t>продукты питания</t>
+  </si>
+  <si>
+    <t>непродовольственные товары</t>
+  </si>
+  <si>
+    <t>услуги</t>
+  </si>
+  <si>
+    <t>Индекс потребительских цен</t>
+  </si>
+  <si>
+    <t>Ввод в действие жилых домов организациями</t>
+  </si>
+  <si>
+    <t>Объем ВВП</t>
+  </si>
+  <si>
+    <t>Дефицит ( – ), профицит консолидированного бюджета</t>
   </si>
   <si>
     <t>Консолидированный бюджет</t>
@@ -397,139 +376,157 @@
     <t>Федеральный бюджет</t>
   </si>
   <si>
-    <t>"1.8. Объем работ по виду деятельности ""Строительство""</t>
+    <t>Консолидированные бюджеты субъектов Российской Федерации</t>
   </si>
   <si>
-    <t>1.12. Дефицит ( – ), профицит консолидированного бюджета</t>
+    <t>Индекс промышленного производства</t>
+  </si>
+  <si>
+    <t>Инвестиции в основной капитал</t>
+  </si>
+  <si>
+    <t>Строительство</t>
+  </si>
+  <si>
+    <t>Обрабатывающие производства</t>
+  </si>
+  <si>
+    <t>Добыча полезных ископаемых</t>
+  </si>
+  <si>
+    <t>Производство и распределение электроэнергии, газа и воды</t>
+  </si>
+  <si>
+    <t>Транспорт и связь</t>
+  </si>
+  <si>
+    <t>Яйца куриные, рублей за тыс.штук</t>
+  </si>
+  <si>
+    <t>индекс цен производителей на строительную продукцию</t>
+  </si>
+  <si>
+    <t>Сводный индекс цен на продукцию (затраты, услуги) инвестиционного назначения</t>
+  </si>
+  <si>
+    <t>Автобусы, штук</t>
+  </si>
+  <si>
+    <t>Автомобили легковые, тыс.штук</t>
+  </si>
+  <si>
+    <t>Автомобили грузовые (включая шасси) (кроме автосамосвалов)</t>
+  </si>
+  <si>
+    <t>Грузовые автомобили, тыс.штук</t>
+  </si>
+  <si>
+    <t>Велосипеды (без детских), тыс.штук</t>
+  </si>
+  <si>
+    <t>Уголь, млн.тонн</t>
+  </si>
+  <si>
+    <t>Яйца, млн.штук</t>
+  </si>
+  <si>
+    <t>Электроэнергия, млрд. кВт·ч</t>
+  </si>
+  <si>
+    <t>Обувь, млн.пар</t>
   </si>
   <si>
     <t>Бензин автомобильный, млн.тонн</t>
   </si>
   <si>
-    <t>непродовольственные товары</t>
+    <t>Газ естественный, млрд.куб.м</t>
   </si>
   <si>
-    <t>индекс цен производителей на строительную продукцию</t>
+    <t>Нефть добытая, млн.тонн</t>
   </si>
   <si>
-    <t>Яйца, млн.штук</t>
+    <t>Вагоны грузовые магистральные, штук</t>
+  </si>
+  <si>
+    <t>Вагоны пассажирские магистральные, штук</t>
   </si>
   <si>
     <t>Сталь, тыс.тонн</t>
   </si>
   <si>
-    <t>/ of which: export of goods – total</t>
+    <t>Древесина деловая</t>
   </si>
   <si>
-    <t>Обрабатывающие производства</t>
+    <t>Древесина необработанная</t>
+  </si>
+  <si>
+    <t>Оборот розничной торговли</t>
   </si>
   <si>
     <t>Официальный курс евро по отношению к рублю</t>
   </si>
   <si>
-    <t>Древесина необработанная</t>
+    <t>Официальный курс доллара США</t>
   </si>
   <si>
-    <t>Индекс промышленного производства</t>
+    <t>Численность занятого в экономике населения</t>
   </si>
   <si>
-    <t>Добыча полезных ископаемых</t>
+    <t>Средний размер назначенных пенсий</t>
   </si>
   <si>
     <t>Общая численность безработных</t>
   </si>
   <si>
-    <t>Автомобили легковые, тыс.штук</t>
-  </si>
-  <si>
-    <t>Автобусы, штук</t>
-  </si>
-  <si>
-    <t>В бюджеты всех уровней</t>
-  </si>
-  <si>
-    <t>Оборот розничной торговли</t>
-  </si>
-  <si>
     <t>Уровень безработицы</t>
   </si>
   <si>
-    <t>Индекс потребительских цен</t>
+    <t>Просроченная задолженность по заработной плате на начало месяца</t>
   </si>
   <si>
-    <t>Нефть добытая, млн.тонн</t>
+    <t>Среднемесячная номинальная начисленная заработная плата</t>
   </si>
   <si>
-    <t>Объем ВВП</t>
+    <t>/ of which: export of goods – total</t>
   </si>
   <si>
-    <t>Производство и распределение электроэнергии, газа и воды</t>
+    <t>/ import of goods – total</t>
   </si>
   <si>
-    <t>Консолидированные бюджеты субъектов Российской Федерации</t>
-  </si>
-  <si>
-    <t>Обувь, млн.пар</t>
+    <t>Коммерческий грузооборот транспорта</t>
   </si>
   <si>
     <t>Freight loading on railway transport</t>
   </si>
   <si>
-    <t>Автомобили грузовые (включая шасси) (кроме автосамосвалов)</t>
+    <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
   </si>
   <si>
-    <t>Численность занятого в экономике населения</t>
+    <t>Объем платных услуг населению</t>
   </si>
   <si>
-    <t>Яйца куриные, рублей за тыс.штук</t>
+    <t>&lt;...&gt;</t>
   </si>
   <si>
-    <t>Кредиторская задолженность</t>
-  </si>
-  <si>
-    <t>алкогольные напитки</t>
-  </si>
-  <si>
-    <t>Строительство</t>
-  </si>
-  <si>
-    <t>Грузовые автомобили, тыс.штук</t>
-  </si>
-  <si>
-    <t>Сводный индекс цен на продукцию (затраты, услуги) инвестиционного назначения</t>
-  </si>
-  <si>
-    <t>Вагоны грузовые магистральные, штук</t>
-  </si>
-  <si>
-    <t>услуги</t>
-  </si>
-  <si>
-    <t>продукты питания</t>
+    <t>млрд. руб. (в фикс. ценах)</t>
   </si>
   <si>
     <t>в % к предыдущему периоду</t>
   </si>
   <si>
+    <t>в % к аналог. периоду предыдущего года</t>
+  </si>
+  <si>
     <t>млрд. руб.</t>
   </si>
   <si>
-    <t>в % к аналог. периоду предыдущего года</t>
-  </si>
-  <si>
-    <t>тыс.</t>
-  </si>
-  <si>
-    <t>на конец периода</t>
+    <t>с начала года</t>
   </si>
   <si>
     <t>штук</t>
   </si>
   <si>
-    <t>млрд. кВт·ч</t>
-  </si>
-  <si>
-    <t>рублей</t>
+    <t>тыс.</t>
   </si>
   <si>
     <t>млн. т</t>
@@ -538,7 +535,13 @@
     <t>млн. человек</t>
   </si>
   <si>
-    <t>млрд. т-км</t>
+    <t>млрд. кВт·ч</t>
+  </si>
+  <si>
+    <t>на конец периода</t>
+  </si>
+  <si>
+    <t>рублей</t>
   </si>
   <si>
     <t>млрд.</t>
@@ -547,10 +550,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>с начала года</t>
-  </si>
-  <si>
-    <t>млрд. руб. (в фикс. ценах)</t>
+    <t>млрд. т-км</t>
   </si>
 </sst>
 </file>
@@ -73228,7 +73228,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -73242,10 +73242,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
@@ -73256,13 +73256,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -73270,13 +73270,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -73284,13 +73284,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -73301,10 +73301,10 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -73312,13 +73312,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -73326,13 +73326,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -73340,13 +73340,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -73354,13 +73354,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -73368,13 +73368,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -73382,13 +73382,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -73396,13 +73396,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -73410,13 +73410,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -73424,13 +73424,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -73438,10 +73438,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>165</v>
@@ -73452,13 +73452,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -73466,13 +73466,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -73480,13 +73480,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -73494,13 +73494,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -73508,13 +73508,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -73522,13 +73522,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -73536,13 +73536,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -73550,13 +73550,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -73564,13 +73564,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -73578,13 +73578,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -73592,13 +73592,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -73606,13 +73606,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -73620,13 +73620,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -73634,13 +73634,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -73648,13 +73648,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -73662,13 +73662,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -73676,13 +73676,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -73690,13 +73690,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -73704,13 +73704,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -73718,13 +73718,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -73732,13 +73732,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -73746,13 +73746,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -73760,13 +73760,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -73774,13 +73774,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -73788,10 +73788,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
         <v>164</v>
@@ -73802,13 +73802,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -73816,13 +73816,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -73830,13 +73830,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -73844,13 +73844,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -73858,13 +73858,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -73872,13 +73872,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -73886,13 +73886,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -73900,13 +73900,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -73914,13 +73914,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -73928,13 +73928,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -73942,13 +73942,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -73956,13 +73956,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -73970,13 +73970,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -73984,13 +73984,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -73998,13 +73998,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -74012,13 +74012,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -74026,13 +74026,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -74040,13 +74040,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -74054,13 +74054,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -74068,13 +74068,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -74082,13 +74082,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -74096,13 +74096,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -74110,13 +74110,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -74124,13 +74124,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -74138,13 +74138,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -74152,13 +74152,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -74166,13 +74166,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -74180,13 +74180,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -74194,13 +74194,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -74208,13 +74208,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -74222,13 +74222,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -74236,10 +74236,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D74" t="s">
         <v>164</v>
@@ -74250,13 +74250,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -74264,13 +74264,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -74278,13 +74278,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -74292,10 +74292,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
         <v>164</v>
@@ -74306,13 +74306,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -74320,13 +74320,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -74334,13 +74334,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -74348,13 +74348,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -74362,13 +74362,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -74376,10 +74376,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -74390,13 +74390,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
         <v>158</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -74404,13 +74404,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -74418,13 +74418,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -74432,13 +74432,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -74446,13 +74446,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D89" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -74460,13 +74460,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -74474,13 +74474,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
         <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -74488,13 +74488,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -74502,13 +74502,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -74516,13 +74516,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -74530,13 +74530,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -74544,13 +74544,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>162</v>
       </c>
       <c r="D96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -74558,13 +74558,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/output/kep.xlsx
+++ b/output/kep.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="191">
   <si>
     <t>CONSTR_bln_rub_fix</t>
   </si>
@@ -340,13 +340,7 @@
     <t>Ед.изм.</t>
   </si>
   <si>
-    <t>_month</t>
-  </si>
-  <si>
-    <t>_qtr</t>
-  </si>
-  <si>
-    <t>_year</t>
+    <t>Частота</t>
   </si>
   <si>
     <t>Объем работ по виду деятельности ""Строительство""</t>
@@ -490,7 +484,7 @@
     <t>Оборот розничной торговли</t>
   </si>
   <si>
-    <t>Товарные запасы в организациях розничной торговли, на конец периода</t>
+    <t>Обеспеченность оборота розничной торговли запасами, дней торговли</t>
   </si>
   <si>
     <t>Объем платных услуг населению</t>
@@ -535,9 +529,6 @@
     <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
   </si>
   <si>
-    <t>&lt;...&gt;</t>
-  </si>
-  <si>
     <t>млрд. руб. (в фикс. ценах)</t>
   </si>
   <si>
@@ -551,6 +542,9 @@
   </si>
   <si>
     <t>рублей</t>
+  </si>
+  <si>
+    <t>&lt;...&gt;</t>
   </si>
   <si>
     <t>с начала года</t>
@@ -581,6 +575,21 @@
   </si>
   <si>
     <t>млрд. т-км</t>
+  </si>
+  <si>
+    <t>AQM</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
 </sst>
 </file>
@@ -76653,13 +76662,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -76669,8 +76678,11 @@
       <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -76678,13 +76690,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -76692,13 +76707,16 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -76706,13 +76724,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -76720,13 +76741,16 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -76734,13 +76758,16 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -76748,13 +76775,16 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -76762,13 +76792,16 @@
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -76776,13 +76809,16 @@
         <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -76790,13 +76826,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -76804,13 +76843,16 @@
         <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -76818,13 +76860,16 @@
         <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -76832,13 +76877,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -76846,13 +76894,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E14" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -76860,13 +76911,16 @@
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -76874,13 +76928,16 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -76888,13 +76945,16 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -76902,13 +76962,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -76916,13 +76979,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -76930,13 +76996,16 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -76944,13 +77013,16 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -76958,13 +77030,16 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -76972,13 +77047,16 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E23" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -76986,13 +77064,16 @@
         <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -77000,13 +77081,16 @@
         <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -77014,13 +77098,16 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -77028,13 +77115,16 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E27" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -77042,13 +77132,16 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -77056,13 +77149,16 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -77070,13 +77166,16 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -77084,13 +77183,16 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -77098,13 +77200,16 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -77112,13 +77217,16 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -77126,13 +77234,16 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -77140,13 +77251,16 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -77154,13 +77268,16 @@
         <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -77168,13 +77285,16 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -77182,13 +77302,16 @@
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -77196,13 +77319,16 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -77210,13 +77336,16 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -77224,13 +77353,16 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -77238,13 +77370,16 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -77252,13 +77387,16 @@
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -77266,13 +77404,16 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -77280,13 +77421,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E45" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -77294,13 +77438,16 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -77308,13 +77455,16 @@
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E47" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -77322,13 +77472,16 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -77336,13 +77489,16 @@
         <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -77350,13 +77506,16 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -77364,13 +77523,16 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -77378,13 +77540,16 @@
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="E52" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -77392,13 +77557,16 @@
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E53" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -77406,13 +77574,16 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -77420,13 +77591,16 @@
         <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E55" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -77434,13 +77608,16 @@
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="E56" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -77448,13 +77625,16 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E57" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -77462,13 +77642,16 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -77476,13 +77659,16 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E59" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -77490,13 +77676,16 @@
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -77504,13 +77693,16 @@
         <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="E61" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -77518,13 +77710,16 @@
         <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="E62" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -77532,13 +77727,16 @@
         <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E63" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -77546,13 +77744,16 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E64" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -77560,13 +77761,16 @@
         <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E65" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -77574,13 +77778,16 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E66" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -77588,13 +77795,16 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -77602,13 +77812,16 @@
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E68" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -77616,13 +77829,16 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E69" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -77630,13 +77846,16 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E70" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -77644,13 +77863,16 @@
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E71" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -77658,13 +77880,16 @@
         <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E72" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -77672,13 +77897,16 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -77686,13 +77914,16 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E74" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -77700,13 +77931,16 @@
         <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -77714,13 +77948,16 @@
         <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="E76" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -77728,13 +77965,16 @@
         <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="E77" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -77742,13 +77982,16 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E78" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -77756,13 +77999,16 @@
         <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="E79" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -77770,13 +78016,16 @@
         <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -77784,13 +78033,16 @@
         <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -77798,13 +78050,16 @@
         <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E82" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -77812,13 +78067,16 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E83" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -77826,13 +78084,16 @@
         <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -77840,13 +78101,16 @@
         <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="E85" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -77854,13 +78118,16 @@
         <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E86" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -77868,13 +78135,16 @@
         <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -77882,13 +78152,16 @@
         <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E88" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -77896,13 +78169,16 @@
         <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E89" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -77910,13 +78186,16 @@
         <v>63</v>
       </c>
       <c r="C90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="E90" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -77924,13 +78203,16 @@
         <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E91" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -77938,13 +78220,16 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E92" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -77952,13 +78237,16 @@
         <v>65</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="E93" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -77966,13 +78254,16 @@
         <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E94" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -77980,13 +78271,16 @@
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E95" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -77994,13 +78288,16 @@
         <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E96" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -78008,13 +78305,16 @@
         <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="E97" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -78022,13 +78322,16 @@
         <v>68</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="E98" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -78036,13 +78339,16 @@
         <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D99" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="E99" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -78050,13 +78356,16 @@
         <v>84</v>
       </c>
       <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" t="s">
         <v>171</v>
       </c>
-      <c r="D100" t="s">
-        <v>174</v>
+      <c r="E100" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -78064,52 +78373,13 @@
         <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" t="s">
         <v>172</v>
       </c>
-      <c r="D102" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" t="s">
-        <v>172</v>
-      </c>
-      <c r="D103" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" t="s">
-        <v>172</v>
+      <c r="E101" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/output/kep.xlsx
+++ b/output/kep.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="259">
   <si>
     <t>AGRO_PRODUCTION_rog</t>
   </si>
@@ -178,7 +178,7 @@
     <t>PROD_RAILWAY_PSGR_WAGONS_units</t>
   </si>
   <si>
-    <t>PROD_STEEL_th_ton</t>
+    <t>PROD_STEEL_th_t</t>
   </si>
   <si>
     <t>PROD_WOOD_INDUSTRIAL_mln_solid_m3</t>
@@ -445,43 +445,55 @@
     <t>Частота</t>
   </si>
   <si>
-    <t>&lt;...&gt;</t>
+    <t>Продукция сельского хозяйства в хозяйствах всех категорий</t>
   </si>
   <si>
     <t>Объем работ по виду деятельности ""Строительство""</t>
   </si>
   <si>
-    <t>В бюджеты всех уровней</t>
+    <t>Просроченная кредиторская задолженность предприятий - в бюджеты всех уровней</t>
   </si>
   <si>
-    <t>Поставщикам, млрд.рублей</t>
+    <t>Просроченная кредиторская задолженность предприятий - поставщикам</t>
   </si>
   <si>
-    <t>в том числе просроченная, млрд.рублей / of which overdue payments, bln rubles</t>
+    <t>Просроченная кредиторская задолженность предприятий - всего</t>
   </si>
   <si>
-    <t>Кредиторская задолженность</t>
+    <t>Кредиторская задолженность предприятий</t>
   </si>
   <si>
-    <t>алкогольные напитки</t>
+    <t>Просроченная дебиторская задолженность – задолженность покупателей</t>
+  </si>
+  <si>
+    <t>Просроченная дебиторская задолженность</t>
+  </si>
+  <si>
+    <t>Дебиторская задолженность</t>
+  </si>
+  <si>
+    <t>Индекс потребительских цен на алкогольные напитки</t>
   </si>
   <si>
     <t>Стоимость и изменение стоимости условного (минимального) набора продуктов питания</t>
   </si>
   <si>
-    <t>продукты питания</t>
+    <t>Индекс потребительских цен на продукты питания</t>
   </si>
   <si>
-    <t>непродовольственные товары</t>
+    <t>Индекс потребительских цен на непродовольственные товары</t>
   </si>
   <si>
     <t>Стоимость и изменение стоимости фиксированного набора потребительских товаров и услуг</t>
   </si>
   <si>
-    <t>услуги</t>
+    <t>Индекс потребительских цен на услуги</t>
   </si>
   <si>
     <t>Индекс потребительских цен</t>
+  </si>
+  <si>
+    <t>Кредиты, депозиты и прочие размещенные средства, предоставленные организациям, физическим лицам и кредитным организациям</t>
   </si>
   <si>
     <t>Ввод в действие жилых домов организациями</t>
@@ -493,13 +505,37 @@
     <t>Дефицит ( – ), профицит консолидированного бюджета</t>
   </si>
   <si>
-    <t>Консолидированный бюджет</t>
+    <t>Консолидированный бюджет - доходы (накопл.)</t>
   </si>
   <si>
-    <t>Федеральный бюджет</t>
+    <t>Консолидированный бюджет - расходы (накопл.)</t>
   </si>
   <si>
-    <t>Консолидированные бюджеты субъектов Российской Федерации</t>
+    <t>Федеральный бюджет - расходы (накопл.)</t>
+  </si>
+  <si>
+    <t>Федеральный бюджет - доходы (накопл.)</t>
+  </si>
+  <si>
+    <t>Федеральный бюджет - профицит (накопл.)</t>
+  </si>
+  <si>
+    <t>Консолидированные бюджеты субъектов РФ - расходы (накопл.)</t>
+  </si>
+  <si>
+    <t>Консолидированные бюджеты субъектов РФ - доходы (накопл.)</t>
+  </si>
+  <si>
+    <t>Консолидированные бюджеты субъектов РФ - профицит (накопл.)</t>
+  </si>
+  <si>
+    <t>Объем депозитов населения в учреждениях Сбербанка России</t>
+  </si>
+  <si>
+    <t>Объем вкладов (депозитов) и прочих привлеченных средств</t>
+  </si>
+  <si>
+    <t>Реальные располагаемые денежные доходы</t>
   </si>
   <si>
     <t>Индекс промышленного производства</t>
@@ -508,28 +544,40 @@
     <t>Инвестиции в основной капитал</t>
   </si>
   <si>
-    <t>Строительство</t>
+    <t>Прибыль - Строительство</t>
   </si>
   <si>
-    <t>Обрабатывающие производства</t>
+    <t>Прибыль - Обрабатывающие производства</t>
   </si>
   <si>
-    <t>Добыча полезных ископаемых</t>
+    <t>Прибыль - Добыча полезных ископаемых</t>
   </si>
   <si>
-    <t>Производство и распределение электроэнергии, газа и воды</t>
+    <t>Прибыль - Производство и распределение электроэнергии, газа и воды</t>
   </si>
   <si>
-    <t>Транспорт и связь</t>
+    <t>Прибыль - Транспорт и связь</t>
   </si>
   <si>
     <t>Яйца куриные, рублей за тыс.штук</t>
   </si>
   <si>
-    <t>индекс цен производителей на строительную продукцию</t>
+    <t>Индексы тарифов на грузовые перевозки</t>
+  </si>
+  <si>
+    <t>Индекс цен производителей на строительную продукцию</t>
   </si>
   <si>
     <t>Сводный индекс цен на продукцию (затраты, услуги) инвестиционного назначения</t>
+  </si>
+  <si>
+    <t>Индексы цен производителей на продукцию животноводства</t>
+  </si>
+  <si>
+    <t>Яйца, млн.штук</t>
+  </si>
+  <si>
+    <t>Скот и птица</t>
   </si>
   <si>
     <t>Автобусы, штук</t>
@@ -559,10 +607,16 @@
     <t>Бензин автомобильный, млн.тонн</t>
   </si>
   <si>
+    <t>Газ природный и попутный</t>
+  </si>
+  <si>
     <t>Газ естественный, млрд.куб.м</t>
   </si>
   <si>
     <t>Нефть добытая, млн.тонн</t>
+  </si>
+  <si>
+    <t>Бумага, тыс.тонн</t>
   </si>
   <si>
     <t>Вагоны грузовые магистральные, штук</t>
@@ -580,10 +634,16 @@
     <t>Древесина необработанная</t>
   </si>
   <si>
+    <t>Оборот розничной торговли - пищевые продукты, включая напитки, и табачные изделия</t>
+  </si>
+  <si>
+    <t>Оборот розничной торговли - непродовольственные товары</t>
+  </si>
+  <si>
     <t>Оборот розничной торговли</t>
   </si>
   <si>
-    <t>Товарные запасы в организациях розничной торговли, на конец периода</t>
+    <t>Обеспеченность оборота розничной торговли запасами, дней торговли</t>
   </si>
   <si>
     <t>Объем платных услуг населению</t>
@@ -595,13 +655,31 @@
     <t>Официальный курс доллара США</t>
   </si>
   <si>
+    <t>Средний размер вклада (депозита) на рублевых и валютных счетах</t>
+  </si>
+  <si>
     <t>Численность занятого в экономике населения</t>
+  </si>
+  <si>
+    <t>Денежные доходы (в среднем на душу населения)</t>
   </si>
   <si>
     <t>Средний размер назначенных пенсий</t>
   </si>
   <si>
+    <t>Реальные денежные доходы</t>
+  </si>
+  <si>
+    <t>Из официально зарегистрированных безработных - получают пособие по безработице</t>
+  </si>
+  <si>
+    <t>Численность официально зарегистрированных безработных</t>
+  </si>
+  <si>
     <t>Общая численность безработных</t>
+  </si>
+  <si>
+    <t>Уровень безработицы</t>
   </si>
   <si>
     <t>Просроченная задолженность по заработной плате на начало месяца</t>
@@ -619,10 +697,13 @@
     <t>Коммерческий грузооборот транспорта</t>
   </si>
   <si>
-    <t>Freight loading on railway transport</t>
+    <t>Погрузка грузов на железнодорожном транспорте</t>
   </si>
   <si>
     <t>Грузооборот транспорта, включая коммерческий и некоммерческий грузооборот</t>
+  </si>
+  <si>
+    <t>Оборот общественного питания</t>
   </si>
   <si>
     <t>в % к предыдущему периоду</t>
@@ -643,7 +724,19 @@
     <t>с начала года</t>
   </si>
   <si>
-    <t>млн. человек</t>
+    <t>млн. м кв.</t>
+  </si>
+  <si>
+    <t>% ВВП</t>
+  </si>
+  <si>
+    <t>&lt;...&gt;</t>
+  </si>
+  <si>
+    <t>млн.</t>
+  </si>
+  <si>
+    <t>тыс. т</t>
   </si>
   <si>
     <t>штук</t>
@@ -658,6 +751,18 @@
     <t>млрд. кВт·ч</t>
   </si>
   <si>
+    <t>млн. пар</t>
+  </si>
+  <si>
+    <t>млрд. куб. м</t>
+  </si>
+  <si>
+    <t>млн м куб.</t>
+  </si>
+  <si>
+    <t>дней торговли</t>
+  </si>
+  <si>
     <t>на конец периода</t>
   </si>
   <si>
@@ -665,6 +770,12 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>млн. руб.</t>
+  </si>
+  <si>
+    <t>млрд. долл. США</t>
   </si>
   <si>
     <t>млрд. т-км</t>
@@ -102814,10 +102925,10 @@
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -102831,10 +102942,10 @@
         <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -102848,10 +102959,10 @@
         <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -102865,10 +102976,10 @@
         <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -102882,10 +102993,10 @@
         <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -102899,10 +103010,10 @@
         <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -102916,10 +103027,10 @@
         <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -102933,10 +103044,10 @@
         <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -102947,13 +103058,13 @@
         <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -102964,13 +103075,13 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -102981,13 +103092,13 @@
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -102998,13 +103109,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -103015,13 +103126,13 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -103032,13 +103143,13 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -103049,13 +103160,13 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -103066,13 +103177,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -103083,13 +103194,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -103100,13 +103211,13 @@
         <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -103117,13 +103228,13 @@
         <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -103134,13 +103245,13 @@
         <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -103151,13 +103262,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -103168,13 +103279,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -103185,13 +103296,13 @@
         <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -103202,13 +103313,13 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -103219,13 +103330,13 @@
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -103236,13 +103347,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -103253,13 +103364,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -103270,13 +103381,13 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -103287,13 +103398,13 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -103304,13 +103415,13 @@
         <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -103321,13 +103432,13 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -103338,13 +103449,13 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -103355,13 +103466,13 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -103372,13 +103483,13 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -103389,13 +103500,13 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -103406,13 +103517,13 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -103423,13 +103534,13 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -103440,13 +103551,13 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -103457,13 +103568,13 @@
         <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E40" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -103474,13 +103585,13 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -103491,13 +103602,13 @@
         <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -103508,13 +103619,13 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -103525,13 +103636,13 @@
         <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -103542,13 +103653,13 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -103559,13 +103670,13 @@
         <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -103576,13 +103687,13 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -103593,13 +103704,13 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -103610,13 +103721,13 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -103627,13 +103738,13 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -103644,13 +103755,13 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -103661,13 +103772,13 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -103678,13 +103789,13 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -103695,13 +103806,13 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -103712,13 +103823,13 @@
         <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -103729,13 +103840,13 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -103746,13 +103857,13 @@
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -103763,13 +103874,13 @@
         <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -103780,13 +103891,13 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -103797,13 +103908,13 @@
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -103814,13 +103925,13 @@
         <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -103831,13 +103942,13 @@
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -103848,13 +103959,13 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -103865,13 +103976,13 @@
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -103882,13 +103993,13 @@
         <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -103899,13 +104010,13 @@
         <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E66" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -103916,13 +104027,13 @@
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -103933,13 +104044,13 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -103950,13 +104061,13 @@
         <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -103967,13 +104078,13 @@
         <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -103984,13 +104095,13 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -104001,13 +104112,13 @@
         <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -104018,13 +104129,13 @@
         <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -104035,13 +104146,13 @@
         <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -104052,13 +104163,13 @@
         <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -104069,13 +104180,13 @@
         <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -104086,13 +104197,13 @@
         <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -104103,13 +104214,13 @@
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -104120,13 +104231,13 @@
         <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -104137,13 +104248,13 @@
         <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -104154,13 +104265,13 @@
         <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -104171,13 +104282,13 @@
         <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E82" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -104188,13 +104299,13 @@
         <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -104205,13 +104316,13 @@
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -104222,13 +104333,13 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E85" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -104239,13 +104350,13 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -104256,13 +104367,13 @@
         <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E87" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -104273,13 +104384,13 @@
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E88" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -104290,13 +104401,13 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -104307,13 +104418,13 @@
         <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E90" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -104324,13 +104435,13 @@
         <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E91" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -104341,13 +104452,13 @@
         <v>133</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -104358,13 +104469,13 @@
         <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E93" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -104375,13 +104486,13 @@
         <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -104392,13 +104503,13 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D95" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -104409,13 +104520,13 @@
         <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -104426,13 +104537,13 @@
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="E97" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -104443,13 +104554,13 @@
         <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -104460,13 +104571,13 @@
         <v>135</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E99" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -104477,13 +104588,13 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -104494,13 +104605,13 @@
         <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E101" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -104511,13 +104622,13 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="D102" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E102" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -104528,13 +104639,13 @@
         <v>68</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E103" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -104545,13 +104656,13 @@
         <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="D104" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E104" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -104562,13 +104673,13 @@
         <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E105" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -104579,13 +104690,13 @@
         <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="D106" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -104596,13 +104707,13 @@
         <v>71</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E107" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -104613,13 +104724,13 @@
         <v>72</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E108" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -104630,13 +104741,13 @@
         <v>73</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D109" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -104647,13 +104758,13 @@
         <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D110" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -104664,13 +104775,13 @@
         <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -104681,13 +104792,13 @@
         <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="D112" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -104698,13 +104809,13 @@
         <v>136</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -104715,13 +104826,13 @@
         <v>137</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -104732,13 +104843,13 @@
         <v>104</v>
       </c>
       <c r="C115" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D115" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E115" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -104749,13 +104860,13 @@
         <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D116" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -104766,13 +104877,13 @@
         <v>78</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -104783,13 +104894,13 @@
         <v>79</v>
       </c>
       <c r="C118" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="E118" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -104800,13 +104911,13 @@
         <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D119" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E119" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -104817,13 +104928,13 @@
         <v>80</v>
       </c>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D120" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -104834,13 +104945,13 @@
         <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D121" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -104851,13 +104962,13 @@
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D122" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E122" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -104868,13 +104979,13 @@
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D123" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E123" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -104885,13 +104996,13 @@
         <v>83</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="E124" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -104902,13 +105013,13 @@
         <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D125" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E125" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -104919,13 +105030,13 @@
         <v>84</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D126" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E126" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -104936,13 +105047,13 @@
         <v>85</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D127" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E127" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -104953,13 +105064,13 @@
         <v>108</v>
       </c>
       <c r="C128" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D128" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E128" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -104970,13 +105081,13 @@
         <v>86</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D129" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E129" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -104987,13 +105098,13 @@
         <v>87</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D130" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="E130" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -105004,13 +105115,13 @@
         <v>109</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D131" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E131" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -105021,13 +105132,13 @@
         <v>88</v>
       </c>
       <c r="C132" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D132" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E132" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -105038,13 +105149,13 @@
         <v>89</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="D133" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E133" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -105055,13 +105166,13 @@
         <v>110</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="D134" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E134" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -105072,13 +105183,13 @@
         <v>90</v>
       </c>
       <c r="C135" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="D135" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E135" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
